--- a/biology/Mycologie/Cunninghamellaceae/Cunninghamellaceae.xlsx
+++ b/biology/Mycologie/Cunninghamellaceae/Cunninghamellaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cunninghamellaceae sont une famille de champignons de l’ordre des Mycorales, trouvés dans les sols. 
 Certaines espèces sont utilisées comme organisme modèle du métabolisme mammalien des xénobiotiques.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1935, le botaniste soviétique Nikolai Alexsandrovich Naumov (d) (1888-1959) crée la famille Cunninghamellaceae[1] toutefois il s'agit d'un nomen nudum. Ce n'est qu'en 1959 que le botaniste et mycologue Richard Keith Benjamin (d) (1922-2002) en fait une description valide[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1935, le botaniste soviétique Nikolai Alexsandrovich Naumov (d) (1888-1959) crée la famille Cunninghamellaceae toutefois il s'agit d'un nomen nudum. Ce n'est qu'en 1959 que le botaniste et mycologue Richard Keith Benjamin (d) (1922-2002) en fait une description valide.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (17 mai 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (17 mai 2022) :
 genre Absidia Tiegh. 1878
 genre Chlamydoabsidia Hesselt. &amp; J.J. Ellis, 1966
 genre Cunninghamella Matr., 1903 - genre type
@@ -579,7 +595,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(ru) N. A. Naumov, Opredelitel Mukorovych (Mucorales), t. 2e édition, Moscou et Leningrad, Botanical Institute, Academy of Sciences, URSS, 1935, 140 p..
 (en) R. K. Benjamin, « The merosporangiferous Mucorales », Aliso, Jardin botanique Rancho Santa Ana (d), vol. 4, no 2,‎ 26 juin 1959, p. 321-433 (ISSN 0065-6275 et 2327-2929, lire en ligne)</t>
